--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Distribución del Trabajo" sheetId="1" r:id="rId1"/>
+    <sheet name="CREAR TABLAS" sheetId="2" r:id="rId1"/>
+    <sheet name="INSERTAR DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="47">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -141,6 +142,30 @@
   </si>
   <si>
     <t>Edición de Catálogos</t>
+  </si>
+  <si>
+    <t>Tabla</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Bitacora Match</t>
+  </si>
+  <si>
+    <t>Bitacora Visitas</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Bitacora Wink</t>
+  </si>
+  <si>
+    <t>Tipo de Usuario(ID, administrador booleano, email, contraseña)</t>
   </si>
 </sst>
 </file>
@@ -199,6 +224,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="A6:D32" totalsRowShown="0">
+  <autoFilter ref="A6:D32"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Tabla"/>
+    <tableColumn id="3" name=" "/>
+    <tableColumn id="4" name="Responsable"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:E34" totalsRowShown="0">
   <autoFilter ref="A6:E34"/>
   <tableColumns count="5">
@@ -475,10 +513,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,8 +935,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
+      <c r="A10" t="s">
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Documents\GitHub\BasesDatos1-ProyectoNo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariela\Documents\GitHub\BasesDatos1-ProyectoNo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="CREAR TABLAS" sheetId="2" r:id="rId1"/>
@@ -523,25 +523,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <strike val="0"/>
@@ -560,6 +541,25 @@
           <bgColor rgb="FFCC0099"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -602,14 +602,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:F80" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:F80" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A6:F80"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Tabla"/>
     <tableColumn id="6" name="SECUENCIA PARA ID"/>
     <tableColumn id="7" name="SCRIPT"/>
-    <tableColumn id="3" name=" " dataDxfId="0"/>
+    <tableColumn id="3" name=" " dataDxfId="1"/>
     <tableColumn id="4" name="Responsable"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -617,7 +617,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:F1048494" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:F1048494" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A6:F1048494"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,7 +2297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="CREAR TABLAS" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="122">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -421,13 +421,19 @@
   </si>
   <si>
     <t>Lugar</t>
+  </si>
+  <si>
+    <t>INCLUIR COMO ATRIBUTO DE PERSONA</t>
+  </si>
+  <si>
+    <t>Columna1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +470,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -497,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -517,30 +530,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -560,6 +555,25 @@
           <bgColor rgb="FFCC0099"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -602,22 +616,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:F80" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="1">
-  <autoFilter ref="A6:F80"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:G80" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A6:G80"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Tabla"/>
     <tableColumn id="6" name="SECUENCIA PARA ID"/>
     <tableColumn id="7" name="SCRIPT"/>
-    <tableColumn id="3" name=" " dataDxfId="0"/>
+    <tableColumn id="3" name=" " dataDxfId="1"/>
     <tableColumn id="4" name="Responsable"/>
+    <tableColumn id="5" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:F1048494" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:F1048494" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A6:F1048494"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
@@ -896,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="D60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,6 +962,9 @@
       <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="G6" s="17" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -2001,7 +2019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>58</v>
       </c>
@@ -2019,7 +2037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>59</v>
       </c>
@@ -2039,7 +2057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>60</v>
       </c>
@@ -2053,7 +2071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>61</v>
       </c>
@@ -2067,7 +2085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>62</v>
       </c>
@@ -2086,8 +2104,11 @@
       <c r="F69" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>63</v>
       </c>
@@ -2107,7 +2128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>64</v>
       </c>
@@ -2121,7 +2142,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>65</v>
       </c>
@@ -2132,7 +2153,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>66</v>
       </c>
@@ -2152,7 +2173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>67</v>
       </c>
@@ -2172,7 +2193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>68</v>
       </c>
@@ -2186,7 +2207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>69</v>
       </c>
@@ -2197,7 +2218,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>70</v>
       </c>
@@ -2217,7 +2238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>71</v>
       </c>
@@ -2237,7 +2258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>72</v>
       </c>
@@ -2254,7 +2275,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>73</v>
       </c>
@@ -2297,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="126">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -421,6 +421,24 @@
   </si>
   <si>
     <t>Lugar</t>
+  </si>
+  <si>
+    <t>T2-Tabla_Email</t>
+  </si>
+  <si>
+    <t>C26-Catalogo_Ciudad</t>
+  </si>
+  <si>
+    <t>C34-Catalogo_Contextura</t>
+  </si>
+  <si>
+    <t>C38-Catalogo_Cojos</t>
+  </si>
+  <si>
+    <t>C60-Catalogo_Escaolaridad</t>
+  </si>
+  <si>
+    <t>C46-Catalogo_Ocupacion</t>
   </si>
 </sst>
 </file>
@@ -896,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,9 +1014,11 @@
         <v>82</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="E9" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>34</v>
@@ -1431,9 +1451,11 @@
         <v>11</v>
       </c>
       <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="E33" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>34</v>
@@ -1575,9 +1597,11 @@
         <v>15</v>
       </c>
       <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="E41" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>34</v>
@@ -1647,9 +1671,11 @@
         <v>17</v>
       </c>
       <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E45" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>34</v>
@@ -1791,9 +1817,11 @@
         <v>21</v>
       </c>
       <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="E53" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>34</v>
@@ -2046,8 +2074,11 @@
       <c r="B67" t="s">
         <v>118</v>
       </c>
+      <c r="D67" t="s">
+        <v>124</v>
+      </c>
       <c r="E67" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
         <v>34</v>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariela\Documents\GitHub\BasesDatos1-ProyectoNo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Documents\GitHub\BasesDatos1-ProyectoNo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="125">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Catálogo de color de cabelllo</t>
   </si>
   <si>
-    <t>Catálogo de nivel académico</t>
-  </si>
-  <si>
     <t>Catálogo de Idiomas</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>Persona</t>
   </si>
   <si>
-    <t>Evento</t>
-  </si>
-  <si>
     <t>Tipo de Usuario(ID, administrador booleano, email, contraseña)</t>
   </si>
   <si>
@@ -420,9 +414,6 @@
     <t>Catálogo de Escolaridad</t>
   </si>
   <si>
-    <t>Lugar</t>
-  </si>
-  <si>
     <t>T2-Tabla_Email</t>
   </si>
   <si>
@@ -435,10 +426,16 @@
     <t>C38-Catalogo_Cojos</t>
   </si>
   <si>
-    <t>C60-Catalogo_Escaolaridad</t>
-  </si>
-  <si>
     <t>C46-Catalogo_Ocupacion</t>
+  </si>
+  <si>
+    <t>Hacer trigger de campos de auditoria</t>
+  </si>
+  <si>
+    <t>Evento(incluir la info de Lugar del Modelo Conceptual)</t>
+  </si>
+  <si>
+    <t>C60-Catalogo_Escolaridad</t>
   </si>
 </sst>
 </file>
@@ -498,7 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -531,10 +528,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,8 +622,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:F80" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A6:F80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:F81" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A6:F81"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Tabla"/>
@@ -635,8 +637,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:F1048494" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A6:F1048494"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:F1048490" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A6:F1048490"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Insert"/>
@@ -912,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I80"/>
+  <dimension ref="A3:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,19 +950,19 @@
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>4</v>
@@ -971,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" s="8">
         <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -991,19 +993,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" s="8">
         <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1011,17 +1013,17 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E9" s="8">
         <v>10</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,7 +1031,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1037,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1045,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1053,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1061,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1077,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1085,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,7 +1095,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1101,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -1110,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1118,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1126,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1134,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1142,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1150,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1158,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1166,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1174,19 +1176,19 @@
         <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19" s="8">
         <v>10</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1194,19 +1196,19 @@
         <v>13</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="E20" s="8">
         <v>10</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1217,16 +1219,16 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E21" s="8">
         <v>10</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1234,19 +1236,19 @@
         <v>15</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="8">
         <v>10</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1257,16 +1259,16 @@
         <v>6</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23" s="8">
         <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -1275,19 +1277,19 @@
         <v>17</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="8">
         <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -1299,16 +1301,16 @@
         <v>7</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E25" s="8">
         <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1316,19 +1318,19 @@
         <v>19</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E26" s="8">
         <v>10</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1339,16 +1341,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="8">
         <v>10</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1356,51 +1358,51 @@
         <v>21</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="8">
         <v>10</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="18">
         <v>22</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>34</v>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18">
+        <v>5</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="18">
         <v>23</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>34</v>
+      <c r="B30" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
+        <v>5</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1411,16 +1413,16 @@
         <v>10</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E31" s="8">
         <v>10</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1428,19 +1430,19 @@
         <v>25</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E32" s="8">
         <v>10</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1452,13 +1454,13 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E33" s="8">
         <v>10</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1466,7 +1468,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1474,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1485,16 +1487,16 @@
         <v>12</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E35" s="8">
         <v>10</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1502,19 +1504,19 @@
         <v>29</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E36" s="8">
         <v>10</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1530,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1538,7 +1540,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,16 +1559,16 @@
         <v>14</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E39" s="8">
         <v>10</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1574,19 +1576,19 @@
         <v>33</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E40" s="8">
         <v>10</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1598,13 +1600,13 @@
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E41" s="8">
         <v>10</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,7 +1614,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -1620,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,16 +1633,16 @@
         <v>16</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E43" s="8">
         <v>10</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1648,19 +1650,19 @@
         <v>37</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E44" s="8">
         <v>10</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,13 +1674,13 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E45" s="8">
         <v>10</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,7 +1688,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -1694,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,16 +1707,16 @@
         <v>18</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E47" s="8">
         <v>10</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1722,71 +1724,59 @@
         <v>41</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E48" s="8">
         <v>10</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>42</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="8">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>43</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="B50" s="9"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="8">
-        <v>0</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>44</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E51" s="8">
         <v>10</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1794,19 +1784,19 @@
         <v>45</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E52" s="8">
         <v>10</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,17 +1804,17 @@
         <v>46</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E53" s="8">
         <v>10</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,7 +1822,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -1840,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1848,19 +1838,19 @@
         <v>48</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E55" s="8">
         <v>10</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1868,19 +1858,19 @@
         <v>49</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E56" s="8">
         <v>10</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1888,19 +1878,19 @@
         <v>50</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E57" s="8">
         <v>10</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1908,19 +1898,19 @@
         <v>51</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E58" s="8">
         <v>10</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,17 +1918,17 @@
         <v>52</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="11">
         <v>0</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,7 +1936,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -1954,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1962,19 +1952,19 @@
         <v>54</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E61" s="11">
         <v>10</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,19 +1972,19 @@
         <v>55</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E62" s="11">
         <v>10</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2002,7 +1992,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -2010,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2018,7 +2008,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -2026,45 +2016,45 @@
         <v>0</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="A65" s="18">
         <v>58</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="11">
-        <v>0</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>34</v>
+      <c r="B65" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="18"/>
+      <c r="E65" s="20">
+        <v>5</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+      <c r="A66" s="18">
         <v>59</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="11">
-        <v>10</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>35</v>
+      <c r="B66" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="20">
+        <v>5</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2072,7 +2062,7 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D67" t="s">
         <v>124</v>
@@ -2081,7 +2071,7 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2089,53 +2079,53 @@
         <v>61</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E68" s="6">
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="15">
         <v>62</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="17">
+        <v>5</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
+        <v>63</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" s="6">
-        <v>10</v>
-      </c>
-      <c r="F69" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>63</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" t="s">
-        <v>81</v>
-      </c>
-      <c r="E70" s="6">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s">
-        <v>35</v>
+      <c r="E70" s="17">
+        <v>5</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2143,13 +2133,13 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2160,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2168,19 +2158,19 @@
         <v>66</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>49</v>
+        <v>85</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E73" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,19 +2178,19 @@
         <v>67</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E74" s="6">
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2208,13 +2198,13 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2225,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2233,19 +2223,19 @@
         <v>70</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>49</v>
+        <v>87</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E77" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2253,60 +2243,75 @@
         <v>71</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" t="s">
         <v>90</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" s="6">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="15">
+        <v>72</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E78" s="6">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>72</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C79" s="15"/>
+      <c r="D79" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E79" s="17">
+        <v>5</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="15">
+        <v>73</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E79" s="6">
-        <v>10</v>
-      </c>
-      <c r="F79" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>73</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C80" t="s">
-        <v>95</v>
-      </c>
-      <c r="D80" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80" s="6">
-        <v>10</v>
-      </c>
-      <c r="F80" t="s">
-        <v>35</v>
+      <c r="E80" s="17">
+        <v>5</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E7:E80">
+  <conditionalFormatting sqref="E7:E81">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -2326,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F45"/>
+  <dimension ref="A3:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,19 +2365,19 @@
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>4</v>
@@ -2383,13 +2388,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2397,16 +2402,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2414,13 +2419,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2428,16 +2433,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2445,13 +2450,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,16 +2464,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2476,13 +2481,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2490,13 +2495,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2504,13 +2509,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2518,13 +2523,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2532,16 +2537,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2555,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2569,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2583,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2597,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2611,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2625,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2639,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2653,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2667,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2681,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2695,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2709,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2723,12 +2728,12 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>19</v>
@@ -2742,7 +2747,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>20</v>
@@ -2751,12 +2756,12 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>21</v>
@@ -2770,7 +2775,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>22</v>
@@ -2779,57 +2784,57 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>30</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>73</v>
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>32</v>
-      </c>
-      <c r="B38" t="s">
-        <v>86</v>
+        <v>33</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2840,24 +2845,24 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>33</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>87</v>
+        <v>34</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>34</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2868,80 +2873,24 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>35</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>89</v>
+        <v>36</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>36</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>37</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>38</v>
-      </c>
-      <c r="B44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E7:E1048494">
-    <cfRule type="iconSet" priority="37">
+  <conditionalFormatting sqref="E7:E1048490">
+    <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="5"/>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="126">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>C60-Catalogo_Escolaridad</t>
+  </si>
+  <si>
+    <t>Tabla de Parametros</t>
   </si>
 </sst>
 </file>
@@ -622,8 +625,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:F81" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A6:F81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:F82" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A6:F82"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Tabla"/>
@@ -914,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I81"/>
+  <dimension ref="A3:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,8 +2313,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E7:E81">
+  <conditionalFormatting sqref="E7:E82">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="128">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -273,9 +273,6 @@
     <t>S25-Secuencia_Pais</t>
   </si>
   <si>
-    <t>Cátalogo de Contextura</t>
-  </si>
-  <si>
     <t>Catálogo de Signo Zodiacal</t>
   </si>
   <si>
@@ -285,12 +282,6 @@
     <t>S_LUGAR_ID</t>
   </si>
   <si>
-    <t>S_CONTEXTURA_ID</t>
-  </si>
-  <si>
-    <t>S55-Secuencia_Contextura</t>
-  </si>
-  <si>
     <t>S59-Secuencia_Lugar</t>
   </si>
   <si>
@@ -348,15 +339,9 @@
     <t>S73-Secuencia_Genero</t>
   </si>
   <si>
-    <t>T12-Tabla_TipoUsuario</t>
-  </si>
-  <si>
     <t>C72-Catalogo_Genero</t>
   </si>
   <si>
-    <t>C54-Catalogo_Contextura</t>
-  </si>
-  <si>
     <t>C48-Catalogo_Salario</t>
   </si>
   <si>
@@ -439,13 +424,34 @@
   </si>
   <si>
     <t>Tabla de Parametros</t>
+  </si>
+  <si>
+    <t>SE ELIMINA POR CORRECCIÓN</t>
+  </si>
+  <si>
+    <t>ESPERANDO TERMINAR CATALOGOS PARA COMPLETAR SCRIPT CON FK</t>
+  </si>
+  <si>
+    <t>Catálogo de color de cabello</t>
+  </si>
+  <si>
+    <t>C12-Catalogo_TipoUsuario</t>
+  </si>
+  <si>
+    <t>TRIGGER PERSONA</t>
+  </si>
+  <si>
+    <t>TRIGGER_PERSONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +488,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -515,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -540,6 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,15 +639,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:F82" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A6:F82"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:G83" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A6:G83">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Mariela"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="7">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Tabla"/>
     <tableColumn id="6" name="SECUENCIA PARA ID"/>
     <tableColumn id="7" name="SCRIPT"/>
     <tableColumn id="3" name=" " dataDxfId="1"/>
     <tableColumn id="4" name="Responsable"/>
+    <tableColumn id="5" name=" 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -917,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I82"/>
+  <dimension ref="A3:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,8 +991,11 @@
       <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>0</v>
       </c>
@@ -979,19 +1003,19 @@
         <v>39</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E7" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -1016,11 +1040,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D9" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E9" s="8">
         <v>10</v>
@@ -1050,9 +1076,11 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8">
         <v>0</v>
@@ -1082,9 +1110,11 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8">
         <v>0</v>
@@ -1115,9 +1145,11 @@
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8">
         <v>0</v>
@@ -1147,9 +1179,11 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8">
         <v>0</v>
@@ -1174,7 +1208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>12</v>
       </c>
@@ -1185,7 +1219,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E19" s="8">
         <v>10</v>
@@ -1194,7 +1228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>13</v>
       </c>
@@ -1214,7 +1248,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>14</v>
       </c>
@@ -1225,7 +1259,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E21" s="8">
         <v>10</v>
@@ -1234,7 +1268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>15</v>
       </c>
@@ -1254,7 +1288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>16</v>
       </c>
@@ -1265,7 +1299,7 @@
         <v>47</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E23" s="8">
         <v>10</v>
@@ -1275,7 +1309,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>17</v>
       </c>
@@ -1296,7 +1330,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>18</v>
       </c>
@@ -1307,7 +1341,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E25" s="8">
         <v>10</v>
@@ -1316,7 +1350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>19</v>
       </c>
@@ -1336,7 +1370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>20</v>
       </c>
@@ -1347,7 +1381,7 @@
         <v>47</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E27" s="8">
         <v>10</v>
@@ -1356,7 +1390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>21</v>
       </c>
@@ -1408,7 +1442,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>24</v>
       </c>
@@ -1419,7 +1453,7 @@
         <v>47</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E31" s="8">
         <v>10</v>
@@ -1428,7 +1462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>25</v>
       </c>
@@ -1448,16 +1482,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>26</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D33" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E33" s="8">
         <v>10</v>
@@ -1466,7 +1502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>27</v>
       </c>
@@ -1481,8 +1517,11 @@
       <c r="F34" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>28</v>
       </c>
@@ -1493,7 +1532,7 @@
         <v>47</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E35" s="8">
         <v>10</v>
@@ -1502,7 +1541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>29</v>
       </c>
@@ -1522,14 +1561,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>30</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8">
         <v>0</v>
@@ -1538,7 +1579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>31</v>
       </c>
@@ -1554,7 +1595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>32</v>
       </c>
@@ -1565,7 +1606,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E39" s="8">
         <v>10</v>
@@ -1574,7 +1615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>33</v>
       </c>
@@ -1594,16 +1635,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>34</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="8"/>
+      <c r="C41" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D41" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E41" s="8">
         <v>10</v>
@@ -1612,7 +1655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>35</v>
       </c>
@@ -1628,7 +1671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>36</v>
       </c>
@@ -1639,7 +1682,7 @@
         <v>47</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E43" s="8">
         <v>10</v>
@@ -1648,7 +1691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>37</v>
       </c>
@@ -1668,16 +1711,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>38</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="8"/>
+      <c r="C45" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D45" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E45" s="8">
         <v>10</v>
@@ -1686,7 +1731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>39</v>
       </c>
@@ -1702,18 +1747,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>40</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E47" s="8">
         <v>10</v>
@@ -1722,7 +1767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>41</v>
       </c>
@@ -1742,7 +1787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>42</v>
       </c>
@@ -1752,7 +1797,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>43</v>
       </c>
@@ -1762,7 +1807,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>44</v>
       </c>
@@ -1773,7 +1818,7 @@
         <v>47</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E51" s="8">
         <v>10</v>
@@ -1782,7 +1827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>45</v>
       </c>
@@ -1809,9 +1854,11 @@
       <c r="B53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="8"/>
+      <c r="C53" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D53" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E53" s="8">
         <v>10</v>
@@ -1836,7 +1883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>48</v>
       </c>
@@ -1847,7 +1894,7 @@
         <v>47</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E55" s="8">
         <v>10</v>
@@ -1856,7 +1903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>49</v>
       </c>
@@ -1876,7 +1923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>50</v>
       </c>
@@ -1887,7 +1934,7 @@
         <v>47</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E57" s="8">
         <v>10</v>
@@ -1896,7 +1943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>51</v>
       </c>
@@ -1904,10 +1951,10 @@
         <v>47</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E58" s="8">
         <v>10</v>
@@ -1916,18 +1963,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>52</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D59" s="8"/>
-      <c r="E59" s="11">
+      <c r="E59" s="8">
         <v>0</v>
       </c>
       <c r="F59" s="8" t="s">
@@ -1939,7 +1986,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -1950,54 +1997,36 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>54</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="11">
-        <v>10</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>55</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E62" s="11">
-        <v>10</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>56</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D63" s="8"/>
       <c r="E63" s="11">
         <v>0</v>
@@ -2027,10 +2056,10 @@
         <v>58</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>47</v>
+        <v>71</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="20">
@@ -2040,7 +2069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
         <v>59</v>
       </c>
@@ -2048,10 +2077,10 @@
         <v>47</v>
       </c>
       <c r="C66" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="E66" s="20">
         <v>5</v>
@@ -2065,10 +2094,13 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D67" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E67" s="6">
         <v>10</v>
@@ -2091,18 +2123,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>62</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>47</v>
+        <v>74</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E69" s="17">
         <v>5</v>
@@ -2111,7 +2143,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>63</v>
       </c>
@@ -2119,10 +2151,10 @@
         <v>47</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E70" s="17">
         <v>5</v>
@@ -2136,7 +2168,10 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
@@ -2156,27 +2191,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>66</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E73" s="6">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="E73" s="8">
+        <v>10</v>
       </c>
       <c r="F73" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>67</v>
       </c>
@@ -2184,10 +2219,10 @@
         <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D74" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E74" s="6">
         <v>10</v>
@@ -2201,7 +2236,10 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
@@ -2221,27 +2259,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>70</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="E77" s="8">
+        <v>10</v>
       </c>
       <c r="F77" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>71</v>
       </c>
@@ -2249,10 +2287,10 @@
         <v>47</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D78" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E78" s="6">
         <v>10</v>
@@ -2261,16 +2299,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>72</v>
       </c>
       <c r="B79" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="E79" s="17">
         <v>5</v>
@@ -2279,7 +2319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>73</v>
       </c>
@@ -2287,10 +2327,10 @@
         <v>47</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E80" s="17">
         <v>5</v>
@@ -2299,36 +2339,56 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="E81" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>75</v>
       </c>
       <c r="B82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="6">
-        <v>0</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="D83" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="6">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E7:E82">
+  <conditionalFormatting sqref="E7:E83">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -2498,7 +2558,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2512,7 +2572,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2526,7 +2586,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2809,7 +2869,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2823,7 +2883,7 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2837,7 +2897,7 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2851,7 +2911,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2865,7 +2925,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2879,7 +2939,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E40">
         <v>0</v>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="161">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -444,7 +444,106 @@
     <t>TRIGGER_PERSONA</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2</t>
+    <t>S_EMAIL_X_PERSONA_ID</t>
+  </si>
+  <si>
+    <t>S3-Secuencia_Email_x_Persona</t>
+  </si>
+  <si>
+    <t>progra de</t>
+  </si>
+  <si>
+    <t>S_EVENTO_ID</t>
+  </si>
+  <si>
+    <t>S5-Secuencia_Evento</t>
+  </si>
+  <si>
+    <t>S_BITACORA_VISITA_ID</t>
+  </si>
+  <si>
+    <t>S_BITACORA_MATCH_ID</t>
+  </si>
+  <si>
+    <t>S_BITACORA_WINK_ID</t>
+  </si>
+  <si>
+    <t>S7-Secuencia_BitacoraMatch</t>
+  </si>
+  <si>
+    <t>S11-Secuencia_BitacoraWink</t>
+  </si>
+  <si>
+    <t>S9-Secuencia_BitacoraVisita</t>
+  </si>
+  <si>
+    <t>S_CIUDAD_ID</t>
+  </si>
+  <si>
+    <t>S27-Secuencia_Ciudad</t>
+  </si>
+  <si>
+    <t>S_ALTURA_ID</t>
+  </si>
+  <si>
+    <t>S31-Secuencia_Altura</t>
+  </si>
+  <si>
+    <t>S_CONTEXTURA_ID</t>
+  </si>
+  <si>
+    <t>S35-Secuencia_Contextura</t>
+  </si>
+  <si>
+    <t>S_COJOS_ID</t>
+  </si>
+  <si>
+    <t>S39-Secuencia_COjos</t>
+  </si>
+  <si>
+    <t>S_OCUPACION_ID</t>
+  </si>
+  <si>
+    <t>S47-Secuencia_Ocupacion</t>
+  </si>
+  <si>
+    <t>S_ZODIACO_ID</t>
+  </si>
+  <si>
+    <t>S57-Secuencia_Zodiaco</t>
+  </si>
+  <si>
+    <t>S_ESCOLARIDAD_ID</t>
+  </si>
+  <si>
+    <t>S_ACTIVIDAD_PERSONA_ID</t>
+  </si>
+  <si>
+    <t>S_HOBBIE_PERSONA_ID</t>
+  </si>
+  <si>
+    <t>S61-Secuencia_Escolaridad</t>
+  </si>
+  <si>
+    <t>S65-Secuencia_Actividad_Persona</t>
+  </si>
+  <si>
+    <t>S69-Secuencia_Hobbie_Persona</t>
+  </si>
+  <si>
+    <t>C30-Catalogo_Altura</t>
+  </si>
+  <si>
+    <t>C56-Catalogo_SignoZodiacal</t>
+  </si>
+  <si>
+    <t>T64-Tabla_Actividad_Persona</t>
+  </si>
+  <si>
+    <t>T68-Tabla_Hobibie_Persona</t>
+  </si>
+  <si>
+    <t>T4-Tabla_Evento</t>
   </si>
 </sst>
 </file>
@@ -489,10 +588,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -528,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -553,7 +653,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,22 +740,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:G83" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A6:G83">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Mariela"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:F83" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A6:F83"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Tabla"/>
     <tableColumn id="6" name="SECUENCIA PARA ID"/>
     <tableColumn id="7" name="SCRIPT"/>
     <tableColumn id="3" name=" " dataDxfId="1"/>
-    <tableColumn id="4" name="Responsable"/>
-    <tableColumn id="5" name=" 2"/>
+    <tableColumn id="4" name="progra de"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -938,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I83"/>
+  <dimension ref="A3:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +1048,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -963,7 +1057,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +1066,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -989,13 +1083,10 @@
         <v>27</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>0</v>
       </c>
@@ -1015,7 +1106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -1035,7 +1126,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2</v>
       </c>
@@ -1055,57 +1146,67 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="B10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="22">
+        <v>10</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
         <v>4</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="C11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="22">
         <v>5</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>5</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="22">
+        <v>10</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>6</v>
       </c>
@@ -1119,28 +1220,32 @@
       <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="E14" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>8</v>
       </c>
@@ -1158,23 +1263,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="E16" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>10</v>
       </c>
@@ -1184,7 +1293,6 @@
       <c r="C17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="8"/>
       <c r="E17" s="8">
         <v>0</v>
       </c>
@@ -1192,23 +1300,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>11</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="E18" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>12</v>
       </c>
@@ -1228,7 +1340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>13</v>
       </c>
@@ -1248,7 +1360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>14</v>
       </c>
@@ -1268,7 +1380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>15</v>
       </c>
@@ -1288,7 +1400,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>16</v>
       </c>
@@ -1307,9 +1419,9 @@
       <c r="F23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>17</v>
       </c>
@@ -1328,9 +1440,9 @@
       <c r="F24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>18</v>
       </c>
@@ -1350,7 +1462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>19</v>
       </c>
@@ -1370,7 +1482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>20</v>
       </c>
@@ -1390,7 +1502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>21</v>
       </c>
@@ -1410,14 +1522,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>22</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
         <v>5</v>
@@ -1426,7 +1540,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>23</v>
       </c>
@@ -1442,7 +1556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>24</v>
       </c>
@@ -1462,7 +1576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>25</v>
       </c>
@@ -1482,7 +1596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>26</v>
       </c>
@@ -1502,26 +1616,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>27</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="E34" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>28</v>
       </c>
@@ -1541,7 +1656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>29</v>
       </c>
@@ -1561,7 +1676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>30</v>
       </c>
@@ -1571,31 +1686,37 @@
       <c r="C37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="E37" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>31</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="E38" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>32</v>
       </c>
@@ -1615,7 +1736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>33</v>
       </c>
@@ -1635,7 +1756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>34</v>
       </c>
@@ -1655,23 +1776,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>35</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="E42" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>36</v>
       </c>
@@ -1691,7 +1816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>37</v>
       </c>
@@ -1711,7 +1836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>38</v>
       </c>
@@ -1731,23 +1856,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>39</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="E46" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>40</v>
       </c>
@@ -1767,7 +1896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>41</v>
       </c>
@@ -1787,7 +1916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>42</v>
       </c>
@@ -1797,7 +1926,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>43</v>
       </c>
@@ -1807,7 +1936,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>44</v>
       </c>
@@ -1827,7 +1956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>45</v>
       </c>
@@ -1874,16 +2003,20 @@
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="C54" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>147</v>
+      </c>
       <c r="E54" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>48</v>
       </c>
@@ -1903,7 +2036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>49</v>
       </c>
@@ -1923,7 +2056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>50</v>
       </c>
@@ -1943,7 +2076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>51</v>
       </c>
@@ -1963,7 +2096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>52</v>
       </c>
@@ -1997,7 +2130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>54</v>
       </c>
@@ -2007,7 +2140,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>55</v>
       </c>
@@ -2027,12 +2160,14 @@
       <c r="C63" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="8"/>
+      <c r="D63" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="E63" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2042,13 +2177,17 @@
       <c r="B64" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="C64" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="E64" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2069,7 +2208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
         <v>59</v>
       </c>
@@ -2116,14 +2255,20 @@
       <c r="B68" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
+        <v>153</v>
+      </c>
       <c r="E68" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>62</v>
       </c>
@@ -2143,7 +2288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>63</v>
       </c>
@@ -2173,25 +2318,34 @@
       <c r="C71" s="9" t="s">
         <v>47</v>
       </c>
+      <c r="D71" t="s">
+        <v>158</v>
+      </c>
       <c r="E71" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>65</v>
       </c>
+      <c r="C72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" t="s">
+        <v>154</v>
+      </c>
       <c r="E72" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>66</v>
       </c>
@@ -2211,7 +2365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>67</v>
       </c>
@@ -2241,25 +2395,34 @@
       <c r="C75" s="9" t="s">
         <v>47</v>
       </c>
+      <c r="D75" t="s">
+        <v>159</v>
+      </c>
       <c r="E75" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>69</v>
       </c>
+      <c r="C76" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" t="s">
+        <v>155</v>
+      </c>
       <c r="E76" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>70</v>
       </c>
@@ -2279,7 +2442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>71</v>
       </c>
@@ -2299,7 +2462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>72</v>
       </c>
@@ -2319,7 +2482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>73</v>
       </c>
@@ -2339,7 +2502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>74</v>
       </c>
@@ -2356,7 +2519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>75</v>
       </c>
@@ -2373,7 +2536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>125</v>
       </c>
@@ -2386,6 +2549,9 @@
       <c r="F83" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:E83">

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="163">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -544,13 +544,19 @@
   </si>
   <si>
     <t>T4-Tabla_Evento</t>
+  </si>
+  <si>
+    <t>Update de Parametros</t>
+  </si>
+  <si>
+    <t>TABLA DE CIUDAD X PAIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,14 +589,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -628,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -654,7 +652,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,8 +737,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:F83" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A6:F83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:F84" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A6:F84"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Tabla"/>
@@ -1034,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,7 +2105,7 @@
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>34</v>
@@ -2537,6 +2534,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>76</v>
+      </c>
       <c r="B83" t="s">
         <v>125</v>
       </c>
@@ -2551,10 +2551,21 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F84" s="23"/>
+      <c r="A84">
+        <v>77</v>
+      </c>
+      <c r="B84" t="s">
+        <v>162</v>
+      </c>
+      <c r="E84" s="6">
+        <v>10</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E7:E83">
+  <conditionalFormatting sqref="E7:E84">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -2574,10 +2585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F41"/>
+  <dimension ref="A3:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,6 +3139,20 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
         <v>34</v>
       </c>
     </row>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CREAR TABLAS" sheetId="2" r:id="rId1"/>
     <sheet name="INSERTAR DATOS" sheetId="1" r:id="rId2"/>
+    <sheet name="package" sheetId="3" r:id="rId3"/>
+    <sheet name="consultas" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="257">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -616,13 +618,229 @@
   </si>
   <si>
     <t xml:space="preserve"> 2</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>package body</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>tablas</t>
+  </si>
+  <si>
+    <t>idioma_persona</t>
+  </si>
+  <si>
+    <t>hobbie_x_persona</t>
+  </si>
+  <si>
+    <t>deporte_x_persona</t>
+  </si>
+  <si>
+    <t>catalogos</t>
+  </si>
+  <si>
+    <t>altura</t>
+  </si>
+  <si>
+    <t>buscar</t>
+  </si>
+  <si>
+    <t>ccabello</t>
+  </si>
+  <si>
+    <t>cojos</t>
+  </si>
+  <si>
+    <t>contextura</t>
+  </si>
+  <si>
+    <t>cpiel</t>
+  </si>
+  <si>
+    <t>deporte</t>
+  </si>
+  <si>
+    <t>edad</t>
+  </si>
+  <si>
+    <t>escolaridad</t>
+  </si>
+  <si>
+    <t>evento</t>
+  </si>
+  <si>
+    <t>frecuencia</t>
+  </si>
+  <si>
+    <t>hobbie</t>
+  </si>
+  <si>
+    <t>idioma</t>
+  </si>
+  <si>
+    <t>ocupacion</t>
+  </si>
+  <si>
+    <t>pais</t>
+  </si>
+  <si>
+    <t>parametros</t>
+  </si>
+  <si>
+    <t>signo_zodiaco</t>
+  </si>
+  <si>
+    <t>tipo_usuario</t>
+  </si>
+  <si>
+    <t>actividad_recreativa</t>
+  </si>
+  <si>
+    <t>rango de edad</t>
+  </si>
+  <si>
+    <t>rango de peso</t>
+  </si>
+  <si>
+    <t>rango de altura</t>
+  </si>
+  <si>
+    <t>color de cabello</t>
+  </si>
+  <si>
+    <t>color de ojos</t>
+  </si>
+  <si>
+    <t>color de piel</t>
+  </si>
+  <si>
+    <t>que practique deportes(almenos1)</t>
+  </si>
+  <si>
+    <t>asistentes a un evento de la ciudad x</t>
+  </si>
+  <si>
+    <t>deporte especifico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">al menos 1 hobbie </t>
+  </si>
+  <si>
+    <t>hobbie especifico</t>
+  </si>
+  <si>
+    <t>idioma especifico</t>
+  </si>
+  <si>
+    <t>mi mismo idioma</t>
+  </si>
+  <si>
+    <t>mas de 1 idioma</t>
+  </si>
+  <si>
+    <t>rango de salario</t>
+  </si>
+  <si>
+    <t>vicio especifico</t>
+  </si>
+  <si>
+    <t>almenos 1 vicio</t>
+  </si>
+  <si>
+    <t>al menos 1 actividad recreativa</t>
+  </si>
+  <si>
+    <t>con más winks</t>
+  </si>
+  <si>
+    <t>con menos winks</t>
+  </si>
+  <si>
+    <t>con mas match</t>
+  </si>
+  <si>
+    <t>con menos match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con mas visitas </t>
+  </si>
+  <si>
+    <t>con menos visitas</t>
+  </si>
+  <si>
+    <t>usuario especifico</t>
+  </si>
+  <si>
+    <t>todos los usuarios</t>
+  </si>
+  <si>
+    <t>afinidad mascotas</t>
+  </si>
+  <si>
+    <t>disponibilidad mascotas</t>
+  </si>
+  <si>
+    <t>por apellido</t>
+  </si>
+  <si>
+    <t>por nombre</t>
+  </si>
+  <si>
+    <t>por email</t>
+  </si>
+  <si>
+    <t>Propuesta_de_Consultas_SamanthaArburola-</t>
+  </si>
+  <si>
+    <t>mis mismos gustos, match 100%</t>
+  </si>
+  <si>
+    <t>0% match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todos hombres </t>
+  </si>
+  <si>
+    <t>todas mujeres</t>
+  </si>
+  <si>
+    <t>primer menu</t>
+  </si>
+  <si>
+    <t>caracteristicas</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>puntuales</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>no E</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,8 +884,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,8 +923,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -695,11 +986,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -725,6 +1096,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2661,7 +3073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -3423,4 +3835,1095 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="F1" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="F4" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="F5" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="F6" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="F7" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="F9" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="F12" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="F13" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="F14" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="F16" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="F17" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="F18" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="F19" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="F20" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="F21" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="F22" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="F23" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="F24" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="F25" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="F26" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="F27" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="F28" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="F29" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="F30" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="F31" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="F32" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="F33" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="F34" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="F35" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H35" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A15:H15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="40"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="40"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="40"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="40"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="40"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="40"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="40"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="40"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="40"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="40"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="40"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="40"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="40"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="40"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A42:E42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CREAR TABLAS" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="258">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -834,6 +834,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>estado civil</t>
   </si>
 </sst>
 </file>
@@ -1102,6 +1105,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1111,7 +1122,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,13 +1140,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3074,7 +3077,7 @@
   <dimension ref="A3:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B1047431" sqref="B1047431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3456,7 +3459,7 @@
         <v>164</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -3502,7 +3505,7 @@
         <v>166</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -3525,7 +3528,7 @@
         <v>167</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -3548,7 +3551,7 @@
         <v>168</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -3571,7 +3574,7 @@
         <v>169</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -3686,7 +3689,7 @@
         <v>174</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
         <v>25</v>
@@ -3732,7 +3735,7 @@
         <v>176</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
         <v>25</v>
@@ -3755,7 +3758,7 @@
         <v>177</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
         <v>25</v>
@@ -3801,7 +3804,7 @@
         <v>179</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
         <v>25</v>
@@ -3839,10 +3842,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3858,16 +3861,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="F1" s="30" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
@@ -3890,30 +3893,34 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="D4" s="25"/>
       <c r="F4" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="27" t="s">
+        <v>254</v>
+      </c>
       <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3923,12 +3930,16 @@
       <c r="B5" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="D5" s="25"/>
       <c r="F5" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="27" t="s">
+        <v>254</v>
+      </c>
       <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3938,12 +3949,16 @@
       <c r="B6" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="D6" s="25"/>
       <c r="F6" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="27" t="s">
+        <v>254</v>
+      </c>
       <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3953,12 +3968,16 @@
       <c r="B7" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="D7" s="25"/>
       <c r="F7" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>254</v>
+      </c>
       <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3968,115 +3987,147 @@
       <c r="B8" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="D8" s="25" t="s">
         <v>255</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="27" t="s">
+        <v>254</v>
+      </c>
       <c r="H8" s="28" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="29" t="s">
         <v>191</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="D9" s="25"/>
       <c r="F9" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="27" t="s">
+        <v>255</v>
+      </c>
       <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="29" t="s">
         <v>192</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="D10" s="25"/>
       <c r="F10" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="27" t="s">
+        <v>256</v>
+      </c>
       <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>256</v>
+      </c>
       <c r="D11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>256</v>
+      </c>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="36" t="s">
         <v>167</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="D12" s="25"/>
       <c r="F12" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="27" t="s">
+        <v>255</v>
+      </c>
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="29" t="s">
         <v>193</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="D13" s="25"/>
       <c r="F13" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="27" t="s">
+        <v>256</v>
+      </c>
       <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="D14" s="25"/>
       <c r="F14" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="27" t="s">
+        <v>256</v>
+      </c>
       <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4251,26 +4302,26 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>254</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D25" s="25"/>
       <c r="F25" s="26" t="s">
         <v>254</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>254</v>
@@ -4289,7 +4340,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>254</v>
@@ -4308,7 +4359,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>254</v>
@@ -4327,7 +4378,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>254</v>
@@ -4346,7 +4397,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>254</v>
@@ -4365,7 +4416,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>254</v>
@@ -4384,7 +4435,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>254</v>
@@ -4403,7 +4454,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>254</v>
@@ -4422,7 +4473,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>254</v>
@@ -4441,7 +4492,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>254</v>
@@ -4457,6 +4508,25 @@
         <v>256</v>
       </c>
       <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="F36" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H36" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4475,7 +4545,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4484,436 +4554,436 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="30" t="s">
         <v>239</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="40"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="30" t="s">
         <v>248</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="40"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="30" t="s">
         <v>249</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="40"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="30" t="s">
         <v>216</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="40"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="30" t="s">
         <v>217</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="40"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="30" t="s">
         <v>165</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="40"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="30" t="s">
         <v>218</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="40"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="30" t="s">
         <v>199</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="40"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="30" t="s">
         <v>219</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="30" t="s">
         <v>220</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="40"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="30" t="s">
         <v>222</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="40"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="30" t="s">
         <v>214</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="30" t="s">
         <v>203</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="30" t="s">
         <v>221</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="40"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="30" t="s">
         <v>223</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="40"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="30" t="s">
         <v>224</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="30" t="s">
         <v>225</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="30" t="s">
         <v>226</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="30" t="s">
         <v>227</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="30" t="s">
         <v>208</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="40"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="30" t="s">
         <v>209</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="40"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="30" t="s">
         <v>215</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="30" t="s">
         <v>171</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="40"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="30" t="s">
         <v>228</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="40"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="30" t="s">
         <v>211</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="40"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="30" t="s">
         <v>229</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="40"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="30" t="s">
         <v>230</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="40"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="30" t="s">
         <v>213</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="40"/>
+      <c r="E31" s="31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="30" t="s">
         <v>231</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="40"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="30" t="s">
         <v>240</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="40"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="30" t="s">
         <v>241</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="30" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="40"/>
+      <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="30" t="s">
         <v>233</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="40"/>
+      <c r="E37" s="31"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="30" t="s">
         <v>234</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="40"/>
+      <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="30" t="s">
         <v>235</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="40"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="30" t="s">
         <v>236</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="40"/>
+      <c r="E40" s="31"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="30" t="s">
         <v>237</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="40"/>
+      <c r="E41" s="31"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="45"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="30" t="s">
         <v>238</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="40"/>
+      <c r="E43" s="31"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="30" t="s">
         <v>242</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="40"/>
+      <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="30" t="s">
         <v>243</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="40"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="30" t="s">
         <v>244</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="40"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="32" t="s">
         <v>246</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="40"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="44"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CREAR TABLAS" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="258">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -3845,7 +3845,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4139,7 +4139,9 @@
       <c r="C16" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F16" s="26" t="s">
         <v>254</v>
       </c>
@@ -4158,7 +4160,9 @@
       <c r="C17" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F17" s="26" t="s">
         <v>254</v>
       </c>
@@ -4177,7 +4181,9 @@
       <c r="C18" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F18" s="26" t="s">
         <v>254</v>
       </c>
@@ -4196,7 +4202,9 @@
       <c r="C19" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F19" s="26" t="s">
         <v>254</v>
       </c>
@@ -4215,7 +4223,9 @@
       <c r="C20" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D20" s="25"/>
+      <c r="D20" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F20" s="26" t="s">
         <v>254</v>
       </c>
@@ -4234,7 +4244,9 @@
       <c r="C21" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F21" s="26" t="s">
         <v>254</v>
       </c>
@@ -4253,7 +4265,9 @@
       <c r="C22" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F22" s="26" t="s">
         <v>254</v>
       </c>
@@ -4272,7 +4286,9 @@
       <c r="C23" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F23" s="26" t="s">
         <v>254</v>
       </c>
@@ -4291,7 +4307,9 @@
       <c r="C24" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F24" s="26" t="s">
         <v>254</v>
       </c>
@@ -4310,7 +4328,9 @@
       <c r="C25" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F25" s="26" t="s">
         <v>254</v>
       </c>
@@ -4329,7 +4349,9 @@
       <c r="C26" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F26" s="26" t="s">
         <v>254</v>
       </c>
@@ -4348,7 +4370,9 @@
       <c r="C27" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F27" s="26" t="s">
         <v>254</v>
       </c>
@@ -4367,7 +4391,9 @@
       <c r="C28" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F28" s="26" t="s">
         <v>254</v>
       </c>
@@ -4386,7 +4412,9 @@
       <c r="C29" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D29" s="25"/>
+      <c r="D29" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F29" s="26" t="s">
         <v>254</v>
       </c>
@@ -4405,7 +4433,9 @@
       <c r="C30" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F30" s="26" t="s">
         <v>254</v>
       </c>
@@ -4424,7 +4454,9 @@
       <c r="C31" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F31" s="26" t="s">
         <v>254</v>
       </c>
@@ -4443,7 +4475,9 @@
       <c r="C32" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F32" s="26" t="s">
         <v>254</v>
       </c>
@@ -4462,7 +4496,9 @@
       <c r="C33" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F33" s="26" t="s">
         <v>254</v>
       </c>
@@ -4481,7 +4517,9 @@
       <c r="C34" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D34" s="25"/>
+      <c r="D34" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F34" s="26" t="s">
         <v>254</v>
       </c>
@@ -4500,7 +4538,9 @@
       <c r="C35" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D35" s="25"/>
+      <c r="D35" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F35" s="26" t="s">
         <v>254</v>
       </c>
@@ -4519,7 +4559,9 @@
       <c r="C36" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="F36" s="26" t="s">
         <v>254</v>
       </c>
@@ -4545,7 +4587,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="258">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -3077,7 +3077,7 @@
   <dimension ref="A3:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1047431" sqref="B1047431"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3845,7 +3845,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4148,7 +4148,9 @@
       <c r="G16" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H16" s="28"/>
+      <c r="H16" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -4169,7 +4171,9 @@
       <c r="G17" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4190,7 +4194,9 @@
       <c r="G18" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -4211,7 +4217,9 @@
       <c r="G19" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4232,7 +4240,9 @@
       <c r="G20" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4253,7 +4263,9 @@
       <c r="G21" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H21" s="28"/>
+      <c r="H21" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4274,7 +4286,9 @@
       <c r="G22" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H22" s="28"/>
+      <c r="H22" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -4295,7 +4309,9 @@
       <c r="G23" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H23" s="28"/>
+      <c r="H23" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4316,7 +4332,9 @@
       <c r="G24" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4337,7 +4355,9 @@
       <c r="G25" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="H25" s="28"/>
+      <c r="H25" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4358,7 +4378,9 @@
       <c r="G26" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H26" s="28"/>
+      <c r="H26" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4379,7 +4401,9 @@
       <c r="G27" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H27" s="28"/>
+      <c r="H27" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4400,7 +4424,9 @@
       <c r="G28" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H28" s="28"/>
+      <c r="H28" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4421,7 +4447,9 @@
       <c r="G29" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H29" s="28"/>
+      <c r="H29" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -4442,7 +4470,9 @@
       <c r="G30" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H30" s="28"/>
+      <c r="H30" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -4463,7 +4493,9 @@
       <c r="G31" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H31" s="28"/>
+      <c r="H31" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -4484,7 +4516,9 @@
       <c r="G32" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H32" s="28"/>
+      <c r="H32" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4505,7 +4539,9 @@
       <c r="G33" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H33" s="28"/>
+      <c r="H33" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -4526,7 +4562,9 @@
       <c r="G34" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H34" s="28"/>
+      <c r="H34" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -4547,7 +4585,9 @@
       <c r="G35" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H35" s="28"/>
+      <c r="H35" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4568,7 +4608,9 @@
       <c r="G36" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="H36" s="28"/>
+      <c r="H36" s="28" t="s">
+        <v>254</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4587,7 +4629,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CREAR TABLAS" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="package" sheetId="3" r:id="rId3"/>
     <sheet name="consultas" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">consultas!$A$3:$B$49</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="260">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -800,9 +803,6 @@
     <t>por email</t>
   </si>
   <si>
-    <t>Propuesta_de_Consultas_SamanthaArburola-</t>
-  </si>
-  <si>
     <t>mis mismos gustos, match 100%</t>
   </si>
   <si>
@@ -837,13 +837,22 @@
   </si>
   <si>
     <t>estado civil</t>
+  </si>
+  <si>
+    <t>Propuesta_de_Consultas_SamanthaArburola-MarielaBarrantes</t>
+  </si>
+  <si>
+    <t>Consulta</t>
+  </si>
+  <si>
+    <t>Encargada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,8 +915,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,8 +996,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -994,86 +1016,15 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1106,13 +1057,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1122,29 +1070,57 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1225,14 +1201,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:F84" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:F84" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A6:F84"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Tabla"/>
     <tableColumn id="6" name="SECUENCIA PARA ID"/>
     <tableColumn id="7" name="SCRIPT"/>
-    <tableColumn id="3" name=" " dataDxfId="1"/>
+    <tableColumn id="3" name=" " dataDxfId="4"/>
     <tableColumn id="4" name="progra de"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1240,7 +1216,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:G1047430" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:G1047430" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A6:G1047430"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ID"/>
@@ -1252,6 +1228,17 @@
     <tableColumn id="5" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A2:B49" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="2">
+  <autoFilter ref="A2:B49"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Consulta"/>
+    <tableColumn id="2" name="Encargada" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3844,8 +3831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,16 +3848,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
@@ -3893,114 +3880,130 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D4" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>253</v>
+      </c>
       <c r="F4" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H4" s="28"/>
+        <v>253</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>212</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="F5" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="F5" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>196</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="F6" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="F6" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>169</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="F7" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="F7" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>210</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>255</v>
-      </c>
       <c r="F8" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G8" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>254</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4008,148 +4011,172 @@
         <v>191</v>
       </c>
       <c r="B9" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="F9" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="28" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>192</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>253</v>
+      </c>
       <c r="F10" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" s="28"/>
+        <v>255</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>204</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="25"/>
+        <v>255</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>253</v>
+      </c>
       <c r="F11" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="H11" s="28"/>
+        <v>255</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="30" t="s">
         <v>167</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="F12" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H12" s="28"/>
+      <c r="H12" s="28" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>193</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>253</v>
+      </c>
       <c r="F13" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="H13" s="28"/>
+        <v>255</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>253</v>
+      </c>
       <c r="F14" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="H14" s="28"/>
+        <v>255</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>195</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4157,22 +4184,22 @@
         <v>197</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4180,22 +4207,22 @@
         <v>165</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4203,22 +4230,22 @@
         <v>198</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4226,22 +4253,22 @@
         <v>199</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4249,22 +4276,22 @@
         <v>200</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4272,22 +4299,22 @@
         <v>201</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4295,22 +4322,22 @@
         <v>202</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4318,45 +4345,45 @@
         <v>203</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4364,22 +4391,22 @@
         <v>205</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4387,22 +4414,22 @@
         <v>206</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4410,22 +4437,22 @@
         <v>207</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4433,22 +4460,22 @@
         <v>208</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4456,22 +4483,22 @@
         <v>209</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4479,22 +4506,22 @@
         <v>170</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4502,22 +4529,22 @@
         <v>171</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -4525,22 +4552,22 @@
         <v>172</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -4548,22 +4575,22 @@
         <v>211</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4571,22 +4598,22 @@
         <v>175</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4594,22 +4621,22 @@
         <v>213</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4626,10 +4653,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4637,447 +4664,396 @@
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="37"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="31"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" s="31"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B43" s="31"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="31"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="31"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="31"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="31"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="31"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="31"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="31"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="31"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="31"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="31"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="31"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="31"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="31"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="31"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="31"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="31"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="31"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="31"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="31"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="31"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="31"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+      <c r="B48" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="31"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
+      <c r="B49" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A42:E42"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CREAR TABLAS" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="261">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -846,6 +846,9 @@
   </si>
   <si>
     <t>Encargada</t>
+  </si>
+  <si>
+    <t>triggers</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1002,6 +1005,24 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1024,7 +1045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1061,6 +1082,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1070,36 +1092,22 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1120,6 +1128,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1232,11 +1258,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A2:B49" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A2:B49" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A2:B49"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Consulta"/>
-    <tableColumn id="2" name="Encargada" dataDxfId="1"/>
+    <tableColumn id="2" name="Encargada" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3829,10 +3855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3845,21 +3871,28 @@
     <col min="6" max="6" width="6.5703125" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="F1" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="J1" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>187</v>
       </c>
@@ -3878,20 +3911,29 @@
       <c r="H2" s="28" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="J2" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>176</v>
       </c>
@@ -3913,8 +3955,14 @@
       <c r="H4" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>212</v>
       </c>
@@ -3936,8 +3984,10 @@
       <c r="H5" s="28" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="39"/>
+      <c r="K5" s="40"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -3959,8 +4009,10 @@
       <c r="H6" s="28" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -3982,8 +4034,14 @@
       <c r="H7" s="28" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>210</v>
       </c>
@@ -4005,8 +4063,12 @@
       <c r="H8" s="28" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="K8" s="40"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>191</v>
       </c>
@@ -4028,8 +4090,12 @@
       <c r="H9" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="39"/>
+      <c r="K9" s="40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>192</v>
       </c>
@@ -4051,8 +4117,10 @@
       <c r="H10" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>204</v>
       </c>
@@ -4074,8 +4142,10 @@
       <c r="H11" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>167</v>
       </c>
@@ -4083,7 +4153,7 @@
         <v>253</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>253</v>
@@ -4097,8 +4167,12 @@
       <c r="H12" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" s="39"/>
+      <c r="K12" s="40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>193</v>
       </c>
@@ -4120,8 +4194,10 @@
       <c r="H13" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>164</v>
       </c>
@@ -4143,20 +4219,25 @@
       <c r="H14" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>195</v>
       </c>
@@ -4178,8 +4259,10 @@
       <c r="H16" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -4201,8 +4284,10 @@
       <c r="H17" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="39"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -4224,8 +4309,10 @@
       <c r="H18" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>198</v>
       </c>
@@ -4247,8 +4334,10 @@
       <c r="H19" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -4270,8 +4359,10 @@
       <c r="H20" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -4293,8 +4384,10 @@
       <c r="H21" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>201</v>
       </c>
@@ -4316,8 +4409,10 @@
       <c r="H22" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -4339,8 +4434,10 @@
       <c r="H23" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -4362,8 +4459,10 @@
       <c r="H24" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>256</v>
       </c>
@@ -4385,8 +4484,10 @@
       <c r="H25" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>205</v>
       </c>
@@ -4408,8 +4509,10 @@
       <c r="H26" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -4431,8 +4534,10 @@
       <c r="H27" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J27" s="39"/>
+      <c r="K27" s="40"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>207</v>
       </c>
@@ -4454,8 +4559,10 @@
       <c r="H28" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28" s="39"/>
+      <c r="K28" s="40"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>208</v>
       </c>
@@ -4477,8 +4584,10 @@
       <c r="H29" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J29" s="39"/>
+      <c r="K29" s="40"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>209</v>
       </c>
@@ -4500,8 +4609,10 @@
       <c r="H30" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J30" s="39"/>
+      <c r="K30" s="40"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -4523,8 +4634,10 @@
       <c r="H31" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J31" s="39"/>
+      <c r="K31" s="40"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>171</v>
       </c>
@@ -4546,8 +4659,10 @@
       <c r="H32" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J32" s="39"/>
+      <c r="K32" s="40"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>172</v>
       </c>
@@ -4569,8 +4684,10 @@
       <c r="H33" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="39"/>
+      <c r="K33" s="40"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -4592,8 +4709,10 @@
       <c r="H34" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34" s="39"/>
+      <c r="K34" s="40"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>175</v>
       </c>
@@ -4615,8 +4734,10 @@
       <c r="H35" s="28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J35" s="39"/>
+      <c r="K35" s="40"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>213</v>
       </c>
@@ -4638,13 +4759,16 @@
       <c r="H36" s="28" t="s">
         <v>253</v>
       </c>
+      <c r="J36" s="39"/>
+      <c r="K36" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4655,8 +4779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5031,7 +5155,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="32" t="s">
         <v>245</v>
       </c>
       <c r="B48" s="21" t="s">

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -18,7 +18,7 @@
     <sheet name="consultas" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">consultas!$A$3:$B$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">consultas!$A$3:$C$49</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="266">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -830,9 +830,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>no E</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -849,6 +846,24 @@
   </si>
   <si>
     <t>triggers</t>
+  </si>
+  <si>
+    <t>Responsable2</t>
+  </si>
+  <si>
+    <t>bitacoras</t>
+  </si>
+  <si>
+    <t>winks</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>visitas</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1083,10 +1098,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1098,11 +1118,12 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,15 +1263,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:G1047430" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A6:G1047430"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:H1047430" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A6:H1047430"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="6" name="Insert"/>
     <tableColumn id="8" name=" "/>
+    <tableColumn id="7" name="Responsable"/>
     <tableColumn id="2" name="UPDATE"/>
     <tableColumn id="3" name=" 2"/>
-    <tableColumn id="4" name="Responsable"/>
+    <tableColumn id="4" name="Responsable2"/>
     <tableColumn id="5" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1258,10 +1280,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A2:B49" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A2:B49"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A2:C49" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A2:C49"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="Consulta"/>
+    <tableColumn id="3" name=" "/>
     <tableColumn id="2" name="Encargada" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3087,10 +3110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G36"/>
+  <dimension ref="A3:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F7" sqref="F7:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3098,22 +3121,23 @@
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="3.28515625" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -3124,19 +3148,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="G6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3146,20 +3173,23 @@
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3169,20 +3199,23 @@
       <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
+      <c r="F8">
+        <v>10</v>
       </c>
       <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -3192,20 +3225,23 @@
       <c r="C9">
         <v>10</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
+      <c r="F9">
+        <v>10</v>
       </c>
       <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -3215,20 +3251,23 @@
       <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
+      <c r="F10">
+        <v>10</v>
       </c>
       <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3238,20 +3277,23 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
+      <c r="F11">
+        <v>10</v>
       </c>
       <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3261,20 +3303,23 @@
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
+      <c r="F12">
+        <v>10</v>
       </c>
       <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -3284,20 +3329,23 @@
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
+      <c r="F13">
+        <v>10</v>
       </c>
       <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -3307,20 +3355,23 @@
       <c r="C14">
         <v>10</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
+      <c r="F14">
+        <v>10</v>
       </c>
       <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -3328,22 +3379,25 @@
         <v>158</v>
       </c>
       <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
+      <c r="F15">
+        <v>10</v>
       </c>
       <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -3353,20 +3407,23 @@
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
+      <c r="F16">
+        <v>10</v>
       </c>
       <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -3376,20 +3433,23 @@
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
+      <c r="F17">
+        <v>103</v>
       </c>
       <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -3399,20 +3459,23 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
+      <c r="F18">
+        <v>10</v>
       </c>
       <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -3422,20 +3485,23 @@
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
+      <c r="F19">
+        <v>10</v>
       </c>
       <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -3445,20 +3511,23 @@
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
+      <c r="F20">
+        <v>10</v>
       </c>
       <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -3468,20 +3537,23 @@
       <c r="C21">
         <v>10</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
+      <c r="F21">
+        <v>10</v>
       </c>
       <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -3491,20 +3563,23 @@
       <c r="C22">
         <v>10</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
+      <c r="F22">
+        <v>10</v>
       </c>
       <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -3514,20 +3589,23 @@
       <c r="C23">
         <v>10</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
+      <c r="F23">
+        <v>10</v>
       </c>
       <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -3537,20 +3615,23 @@
       <c r="C24">
         <v>10</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>25</v>
+      <c r="F24">
+        <v>10</v>
       </c>
       <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -3560,20 +3641,23 @@
       <c r="C25">
         <v>10</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
+      <c r="F25">
+        <v>10</v>
       </c>
       <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -3583,20 +3667,23 @@
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>25</v>
+      <c r="F26">
+        <v>10</v>
       </c>
       <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -3606,20 +3693,23 @@
       <c r="C27">
         <v>10</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
+      <c r="F27">
+        <v>10</v>
       </c>
       <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -3629,20 +3719,23 @@
       <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>101</v>
       </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
       <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -3652,20 +3745,23 @@
       <c r="C29">
         <v>10</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>11</v>
       </c>
-      <c r="F29" t="s">
-        <v>25</v>
-      </c>
       <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -3675,20 +3771,23 @@
       <c r="C30">
         <v>10</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>11</v>
       </c>
-      <c r="F30" t="s">
-        <v>25</v>
-      </c>
       <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -3698,20 +3797,23 @@
       <c r="C31">
         <v>10</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>25</v>
+      <c r="F31">
+        <v>10</v>
       </c>
       <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -3721,20 +3823,23 @@
       <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>11</v>
       </c>
-      <c r="F32" t="s">
-        <v>25</v>
-      </c>
       <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -3744,20 +3849,23 @@
       <c r="C33">
         <v>10</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>25</v>
+      <c r="F33">
+        <v>10</v>
       </c>
       <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -3767,20 +3875,23 @@
       <c r="C34">
         <v>5</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>25</v>
+      <c r="F34">
+        <v>10</v>
       </c>
       <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
@@ -3790,20 +3901,23 @@
       <c r="C35">
         <v>10</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>11</v>
       </c>
-      <c r="F35" t="s">
-        <v>25</v>
-      </c>
       <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
@@ -3811,23 +3925,26 @@
         <v>179</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
         <v>179</v>
       </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s">
-        <v>25</v>
+      <c r="F36">
+        <v>10</v>
       </c>
       <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E7:E1047430">
+  <conditionalFormatting sqref="F7:F1047430">
     <cfRule type="iconSet" priority="49">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -3836,7 +3953,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C1047430">
+  <conditionalFormatting sqref="C37:D1047430 C7:C36">
     <cfRule type="iconSet" priority="50">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -3855,10 +3972,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3874,25 +3991,33 @@
     <col min="9" max="9" width="3.85546875" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="F1" s="34" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="F1" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="J1" s="38" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="J1" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" s="37"/>
+      <c r="L1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="K1" s="38"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>187</v>
       </c>
@@ -3911,865 +4036,1169 @@
       <c r="H2" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="34" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B8" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="40"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B10" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B11" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="K8" s="40"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="B12" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="B13" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G10" s="27" t="s">
+      <c r="B14" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>255</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="40"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="40"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="40"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B29" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>205</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="40"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B30" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="40"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B31" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>207</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J28" s="39"/>
-      <c r="K28" s="40"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B32" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>208</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J29" s="39"/>
-      <c r="K29" s="40"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B33" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>209</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J30" s="39"/>
-      <c r="K30" s="40"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B34" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="40"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B35" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J32" s="39"/>
-      <c r="K32" s="40"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B36" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="34"/>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>172</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="40"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B37" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J37" s="33"/>
+      <c r="K37" s="34"/>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>211</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J34" s="39"/>
-      <c r="K34" s="40"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B38" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" s="33"/>
+      <c r="K38" s="34"/>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>175</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="40"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B39" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J39" s="33"/>
+      <c r="K39" s="34"/>
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>213</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H36" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="40"/>
+      <c r="B40" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J40" s="33"/>
+      <c r="K40" s="34"/>
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A19:K19"/>
     <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A15:K15"/>
   </mergeCells>
+  <conditionalFormatting sqref="L2:L1047430">
+    <cfRule type="iconSet" priority="51">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4777,403 +5206,546 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="37"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="B2" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="31"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="31"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="31"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="B36" s="31"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="B43" s="31"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="31"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:B49">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CREAR TABLAS" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="266">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -1100,6 +1100,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1116,12 +1122,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3974,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3996,20 +3996,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="F1" s="36" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="J1" s="37" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="J1" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="37"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="4" t="s">
         <v>184</v>
       </c>
@@ -4044,22 +4044,22 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="35" t="s">
         <v>262</v>
       </c>
       <c r="B4" s="23"/>
@@ -4078,7 +4078,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="35" t="s">
         <v>263</v>
       </c>
       <c r="B5" s="23"/>
@@ -4097,7 +4097,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="35" t="s">
         <v>264</v>
       </c>
       <c r="B6" s="23"/>
@@ -4116,19 +4116,19 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -4516,19 +4516,19 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4552,10 +4552,14 @@
       <c r="H20" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="J20" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M20" t="s">
         <v>25</v>
@@ -4583,10 +4587,14 @@
       <c r="H21" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="J21" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M21" t="s">
         <v>25</v>
@@ -4614,10 +4622,14 @@
       <c r="H22" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
+      <c r="J22" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M22" t="s">
         <v>25</v>
@@ -4645,10 +4657,14 @@
       <c r="H23" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+      <c r="J23" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M23" t="s">
         <v>25</v>
@@ -4676,10 +4692,14 @@
       <c r="H24" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
+      <c r="J24" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M24" t="s">
         <v>25</v>
@@ -4707,10 +4727,14 @@
       <c r="H25" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
+      <c r="J25" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M25" t="s">
         <v>25</v>
@@ -4738,10 +4762,14 @@
       <c r="H26" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
+      <c r="J26" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M26" t="s">
         <v>25</v>
@@ -4769,10 +4797,14 @@
       <c r="H27" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
+      <c r="J27" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M27" t="s">
         <v>25</v>
@@ -4800,10 +4832,14 @@
       <c r="H28" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
+      <c r="J28" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M28" t="s">
         <v>25</v>
@@ -4831,10 +4867,14 @@
       <c r="H29" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
+      <c r="J29" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M29" t="s">
         <v>25</v>
@@ -4862,10 +4902,14 @@
       <c r="H30" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34"/>
+      <c r="J30" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M30" t="s">
         <v>25</v>
@@ -4893,10 +4937,14 @@
       <c r="H31" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
+      <c r="J31" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M31" t="s">
         <v>25</v>
@@ -4924,10 +4972,14 @@
       <c r="H32" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
+      <c r="J32" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M32" t="s">
         <v>25</v>
@@ -4955,10 +5007,14 @@
       <c r="H33" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
+      <c r="J33" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M33" t="s">
         <v>25</v>
@@ -4986,10 +5042,14 @@
       <c r="H34" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J34" s="33"/>
-      <c r="K34" s="34"/>
+      <c r="J34" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M34" t="s">
         <v>25</v>
@@ -5017,10 +5077,14 @@
       <c r="H35" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J35" s="33"/>
-      <c r="K35" s="34"/>
+      <c r="J35" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M35" t="s">
         <v>25</v>
@@ -5048,10 +5112,14 @@
       <c r="H36" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="34"/>
+      <c r="J36" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M36" t="s">
         <v>25</v>
@@ -5079,10 +5147,14 @@
       <c r="H37" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J37" s="33"/>
-      <c r="K37" s="34"/>
+      <c r="J37" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K37" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M37" t="s">
         <v>25</v>
@@ -5110,10 +5182,14 @@
       <c r="H38" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J38" s="33"/>
-      <c r="K38" s="34"/>
+      <c r="J38" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K38" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M38" t="s">
         <v>25</v>
@@ -5141,10 +5217,14 @@
       <c r="H39" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J39" s="33"/>
-      <c r="K39" s="34"/>
+      <c r="J39" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M39" t="s">
         <v>25</v>
@@ -5172,10 +5252,14 @@
       <c r="H40" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J40" s="33"/>
-      <c r="K40" s="34"/>
+      <c r="J40" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K40" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M40" t="s">
         <v>25</v>
@@ -5208,7 +5292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -5219,17 +5303,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="31" t="s">

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Documents\GitHub\BasesDatos1-ProyectoNo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariela\Documents\GitHub\BasesDatos1-ProyectoNo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CREAR TABLAS" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="266">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -3974,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4068,10 +4068,14 @@
       <c r="F4" s="26"/>
       <c r="G4" s="27"/>
       <c r="H4" s="28"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
+      <c r="J4" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -4087,10 +4091,14 @@
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
       <c r="H5" s="28"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
+      <c r="J5" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
@@ -4106,10 +4114,14 @@
       <c r="F6" s="26"/>
       <c r="G6" s="27"/>
       <c r="H6" s="28"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="J6" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="L6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M6" t="s">
         <v>24</v>
@@ -5292,7 +5304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariela\Documents\GitHub\BasesDatos1-ProyectoNo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Documents\GitHub\BasesDatos1-ProyectoNo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CREAR TABLAS" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="266">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -870,7 +870,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -936,6 +936,14 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1060,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1122,6 +1130,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3974,8 +3985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,85 +4073,121 @@
       <c r="A4" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="B4" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>265</v>
+      </c>
       <c r="J4" s="33" t="s">
         <v>253</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="L4">
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>253</v>
+      </c>
       <c r="J5" s="33" t="s">
         <v>253</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="L5">
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>265</v>
+      </c>
       <c r="J6" s="33" t="s">
         <v>253</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="L6">
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -5302,9 +5349,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -5314,14 +5361,14 @@
     <col min="2" max="2" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>256</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>257</v>
       </c>
@@ -5332,13 +5379,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>249</v>
       </c>
       <c r="C3" s="31"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>239</v>
       </c>
@@ -5349,7 +5396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>247</v>
       </c>
@@ -5360,7 +5407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>248</v>
       </c>
@@ -5371,13 +5418,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>250</v>
       </c>
       <c r="C7" s="31"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>216</v>
       </c>
@@ -5387,8 +5434,9 @@
       <c r="C8" s="21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>217</v>
       </c>
@@ -5399,7 +5447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>165</v>
       </c>
@@ -5410,7 +5458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>218</v>
       </c>
@@ -5421,7 +5469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>199</v>
       </c>
@@ -5432,7 +5480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>219</v>
       </c>
@@ -5443,7 +5491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>220</v>
       </c>
@@ -5454,7 +5502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>222</v>
       </c>
@@ -5465,7 +5513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>214</v>
       </c>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -749,9 +749,6 @@
     <t>mi mismo idioma</t>
   </si>
   <si>
-    <t>mas de 1 idioma</t>
-  </si>
-  <si>
     <t>rango de salario</t>
   </si>
   <si>
@@ -864,6 +861,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>almenos de 1 idioma</t>
   </si>
 </sst>
 </file>
@@ -949,7 +949,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1046,6 +1046,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1068,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1123,6 +1129,9 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1132,9 +1141,8 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3168,7 +3176,7 @@
         <v>184</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>180</v>
@@ -4018,14 +4026,14 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
       <c r="J1" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K1" s="39"/>
       <c r="L1" s="4" t="s">
         <v>184</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4055,47 +4063,47 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="A3" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -4106,31 +4114,31 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -4141,31 +4149,31 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>265</v>
-      </c>
       <c r="D6" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -4175,47 +4183,47 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>176</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -4229,28 +4237,28 @@
         <v>212</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -4264,28 +4272,28 @@
         <v>196</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -4299,28 +4307,28 @@
         <v>169</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -4334,28 +4342,28 @@
         <v>210</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L12">
         <v>10</v>
@@ -4369,28 +4377,28 @@
         <v>191</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L13">
         <v>10</v>
@@ -4404,28 +4412,28 @@
         <v>192</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -4439,28 +4447,28 @@
         <v>204</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -4474,28 +4482,28 @@
         <v>167</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L16">
         <v>10</v>
@@ -4509,28 +4517,28 @@
         <v>193</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L17">
         <v>10</v>
@@ -4544,28 +4552,28 @@
         <v>164</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -4575,47 +4583,47 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>195</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -4629,28 +4637,28 @@
         <v>197</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -4664,28 +4672,28 @@
         <v>165</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L22">
         <v>10</v>
@@ -4699,28 +4707,28 @@
         <v>198</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L23">
         <v>10</v>
@@ -4734,28 +4742,28 @@
         <v>199</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -4769,28 +4777,28 @@
         <v>200</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L25">
         <v>10</v>
@@ -4804,28 +4812,28 @@
         <v>201</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L26">
         <v>10</v>
@@ -4839,28 +4847,28 @@
         <v>202</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L27">
         <v>10</v>
@@ -4874,28 +4882,28 @@
         <v>203</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L28">
         <v>10</v>
@@ -4906,31 +4914,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L29">
         <v>10</v>
@@ -4944,28 +4952,28 @@
         <v>205</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -4979,28 +4987,28 @@
         <v>206</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L31">
         <v>10</v>
@@ -5014,28 +5022,28 @@
         <v>207</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L32">
         <v>10</v>
@@ -5049,28 +5057,28 @@
         <v>208</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L33">
         <v>10</v>
@@ -5084,28 +5092,28 @@
         <v>209</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L34">
         <v>10</v>
@@ -5119,28 +5127,28 @@
         <v>170</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L35">
         <v>10</v>
@@ -5154,28 +5162,28 @@
         <v>171</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L36">
         <v>10</v>
@@ -5189,28 +5197,28 @@
         <v>172</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L37">
         <v>10</v>
@@ -5224,28 +5232,28 @@
         <v>211</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L38">
         <v>10</v>
@@ -5259,28 +5267,28 @@
         <v>175</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L39">
         <v>10</v>
@@ -5294,28 +5302,28 @@
         <v>213</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L40">
         <v>10</v>
@@ -5351,8 +5359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5362,32 +5370,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="A1" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5398,7 +5406,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5409,7 +5417,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5420,7 +5428,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="31"/>
     </row>
@@ -5547,13 +5555,13 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="45">
         <v>0</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5591,13 +5599,13 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" s="45">
         <v>0</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="44" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5647,7 +5655,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -5669,7 +5677,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5679,13 +5687,13 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="45">
         <v>0</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5701,19 +5709,19 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B33" s="45">
         <v>0</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5724,7 +5732,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5735,13 +5743,13 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5752,7 +5760,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5763,7 +5771,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5774,7 +5782,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5785,7 +5793,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5796,7 +5804,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5807,13 +5815,13 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C43" s="31"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5824,7 +5832,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5835,7 +5843,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5846,7 +5854,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5857,7 +5865,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5868,7 +5876,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B49">
         <v>0</v>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Documents\GitHub\BasesDatos1-ProyectoNo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariela\Documents\GitHub\BasesDatos1-ProyectoNo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1123,6 +1123,9 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,9 +1133,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4055,19 +4055,19 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
@@ -4175,19 +4175,19 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -4575,19 +4575,19 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -5351,8 +5351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5362,11 +5362,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -5429,7 +5429,7 @@
         <v>216</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>24</v>
@@ -5441,7 +5441,7 @@
         <v>217</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>24</v>
@@ -5452,7 +5452,7 @@
         <v>165</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>24</v>
@@ -5496,7 +5496,7 @@
         <v>220</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>24</v>
@@ -5507,7 +5507,7 @@
         <v>222</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>24</v>
@@ -5518,7 +5518,7 @@
         <v>214</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>24</v>
@@ -5540,7 +5540,7 @@
         <v>221</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>24</v>
@@ -5573,7 +5573,7 @@
         <v>225</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>24</v>
@@ -5584,7 +5584,7 @@
         <v>226</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>24</v>
@@ -5595,7 +5595,7 @@
         <v>227</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>24</v>
@@ -5639,7 +5639,7 @@
         <v>171</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>24</v>
@@ -5661,7 +5661,7 @@
         <v>211</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>24</v>
@@ -5694,7 +5694,7 @@
         <v>213</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>24</v>
@@ -5705,7 +5705,7 @@
         <v>231</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>24</v>
@@ -5727,7 +5727,7 @@
         <v>241</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>24</v>
@@ -5744,7 +5744,7 @@
         <v>232</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>24</v>
@@ -5755,7 +5755,7 @@
         <v>233</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>24</v>
@@ -5766,7 +5766,7 @@
         <v>234</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>24</v>
@@ -5777,7 +5777,7 @@
         <v>235</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>24</v>
@@ -5788,7 +5788,7 @@
         <v>236</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>24</v>
@@ -5799,7 +5799,7 @@
         <v>237</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>24</v>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -1120,6 +1120,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,8 +1143,6 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1300,7 +1300,13 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A2:C49" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A2:C49"/>
+  <autoFilter ref="A2:C49">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Mariela"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" name="Consulta"/>
     <tableColumn id="3" name=" "/>
@@ -4015,20 +4021,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="F1" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="J1" s="39" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="J1" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="K1" s="39"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="4" t="s">
         <v>184</v>
       </c>
@@ -4063,19 +4069,19 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
@@ -4183,19 +4189,19 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -4583,19 +4589,19 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -5359,8 +5365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5370,11 +5376,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -5387,13 +5393,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>248</v>
       </c>
       <c r="C3" s="31"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>238</v>
       </c>
@@ -5404,7 +5410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>246</v>
       </c>
@@ -5415,7 +5421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>247</v>
       </c>
@@ -5426,7 +5432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>249</v>
       </c>
@@ -5437,7 +5443,7 @@
         <v>216</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>24</v>
@@ -5449,7 +5455,7 @@
         <v>217</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>24</v>
@@ -5460,13 +5466,13 @@
         <v>165</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>218</v>
       </c>
@@ -5477,7 +5483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>199</v>
       </c>
@@ -5488,7 +5494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>219</v>
       </c>
@@ -5504,7 +5510,7 @@
         <v>220</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>24</v>
@@ -5515,7 +5521,7 @@
         <v>222</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>24</v>
@@ -5526,13 +5532,13 @@
         <v>214</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>203</v>
       </c>
@@ -5548,24 +5554,24 @@
         <v>221</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="38">
         <v>0</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>224</v>
       </c>
@@ -5581,7 +5587,7 @@
         <v>225</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>24</v>
@@ -5592,24 +5598,24 @@
         <v>226</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="B23" s="45">
-        <v>0</v>
-      </c>
-      <c r="C23" s="44" t="s">
+      <c r="B23" s="38">
+        <v>5</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>208</v>
       </c>
@@ -5620,7 +5626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>209</v>
       </c>
@@ -5631,7 +5637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>215</v>
       </c>
@@ -5647,13 +5653,13 @@
         <v>171</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>227</v>
       </c>
@@ -5669,13 +5675,13 @@
         <v>211</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>228</v>
       </c>
@@ -5686,14 +5692,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="B31" s="45">
+      <c r="B31" s="38">
         <v>0</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="37" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5702,24 +5708,24 @@
         <v>213</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="B33" s="45">
-        <v>0</v>
-      </c>
-      <c r="C33" s="44" t="s">
+      <c r="B33" s="38">
+        <v>5</v>
+      </c>
+      <c r="C33" s="37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>239</v>
       </c>
@@ -5735,13 +5741,13 @@
         <v>240</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>250</v>
       </c>
@@ -5752,7 +5758,7 @@
         <v>231</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>24</v>
@@ -5763,7 +5769,7 @@
         <v>232</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>24</v>
@@ -5774,7 +5780,7 @@
         <v>233</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>24</v>
@@ -5785,7 +5791,7 @@
         <v>234</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>24</v>
@@ -5796,7 +5802,7 @@
         <v>235</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>24</v>
@@ -5807,19 +5813,19 @@
         <v>236</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>251</v>
       </c>
       <c r="C43" s="31"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>237</v>
       </c>
@@ -5830,7 +5836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>241</v>
       </c>
@@ -5841,7 +5847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>242</v>
       </c>
@@ -5852,7 +5858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>243</v>
       </c>
@@ -5863,7 +5869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>244</v>
       </c>
@@ -5874,7 +5880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>245</v>
       </c>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="265">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -777,9 +777,6 @@
   </si>
   <si>
     <t>con menos visitas</t>
-  </si>
-  <si>
-    <t>usuario especifico</t>
   </si>
   <si>
     <t>todos los usuarios</t>
@@ -1303,7 +1300,7 @@
   <autoFilter ref="A2:C49">
     <filterColumn colId="2">
       <filters>
-        <filter val="Mariela"/>
+        <filter val="Samantha"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3182,7 +3179,7 @@
         <v>184</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>180</v>
@@ -4032,14 +4029,14 @@
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
       <c r="J1" s="41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K1" s="41"/>
       <c r="L1" s="4" t="s">
         <v>184</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4070,7 +4067,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -4085,31 +4082,31 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -4120,31 +4117,31 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -4155,31 +4152,31 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>264</v>
-      </c>
       <c r="D6" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -4208,28 +4205,28 @@
         <v>176</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -4243,28 +4240,28 @@
         <v>212</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -4278,28 +4275,28 @@
         <v>196</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -4313,28 +4310,28 @@
         <v>169</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -4348,28 +4345,28 @@
         <v>210</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L12">
         <v>10</v>
@@ -4383,28 +4380,28 @@
         <v>191</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L13">
         <v>10</v>
@@ -4418,28 +4415,28 @@
         <v>192</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -4453,28 +4450,28 @@
         <v>204</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -4488,28 +4485,28 @@
         <v>167</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L16">
         <v>10</v>
@@ -4523,28 +4520,28 @@
         <v>193</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L17">
         <v>10</v>
@@ -4558,28 +4555,28 @@
         <v>164</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -4608,28 +4605,28 @@
         <v>195</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -4643,28 +4640,28 @@
         <v>197</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -4678,28 +4675,28 @@
         <v>165</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L22">
         <v>10</v>
@@ -4713,28 +4710,28 @@
         <v>198</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L23">
         <v>10</v>
@@ -4748,28 +4745,28 @@
         <v>199</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -4783,28 +4780,28 @@
         <v>200</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L25">
         <v>10</v>
@@ -4818,28 +4815,28 @@
         <v>201</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L26">
         <v>10</v>
@@ -4853,28 +4850,28 @@
         <v>202</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L27">
         <v>10</v>
@@ -4888,28 +4885,28 @@
         <v>203</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L28">
         <v>10</v>
@@ -4920,31 +4917,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L29">
         <v>10</v>
@@ -4958,28 +4955,28 @@
         <v>205</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -4993,28 +4990,28 @@
         <v>206</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L31">
         <v>10</v>
@@ -5028,28 +5025,28 @@
         <v>207</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L32">
         <v>10</v>
@@ -5063,28 +5060,28 @@
         <v>208</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L33">
         <v>10</v>
@@ -5098,28 +5095,28 @@
         <v>209</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L34">
         <v>10</v>
@@ -5133,28 +5130,28 @@
         <v>170</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L35">
         <v>10</v>
@@ -5168,28 +5165,28 @@
         <v>171</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L36">
         <v>10</v>
@@ -5203,28 +5200,28 @@
         <v>172</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L37">
         <v>10</v>
@@ -5238,28 +5235,28 @@
         <v>211</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L38">
         <v>10</v>
@@ -5273,28 +5270,28 @@
         <v>175</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L39">
         <v>10</v>
@@ -5308,28 +5305,28 @@
         <v>213</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L40">
         <v>10</v>
@@ -5365,8 +5362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5377,56 +5374,56 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C3" s="31"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>25</v>
@@ -5434,11 +5431,11 @@
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="31"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>216</v>
       </c>
@@ -5450,7 +5447,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>217</v>
       </c>
@@ -5461,7 +5458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>165</v>
       </c>
@@ -5472,40 +5469,40 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>199</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>219</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>220</v>
       </c>
@@ -5516,7 +5513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>222</v>
       </c>
@@ -5527,7 +5524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>214</v>
       </c>
@@ -5538,18 +5535,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>221</v>
       </c>
@@ -5560,7 +5557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>223</v>
       </c>
@@ -5571,18 +5568,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>224</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>225</v>
       </c>
@@ -5593,7 +5590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>226</v>
       </c>
@@ -5604,9 +5601,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B23" s="38">
         <v>5</v>
@@ -5615,40 +5612,40 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>208</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>171</v>
       </c>
@@ -5659,18 +5656,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>227</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>211</v>
       </c>
@@ -5681,18 +5678,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>228</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>229</v>
       </c>
@@ -5703,7 +5700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>213</v>
       </c>
@@ -5714,7 +5711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
         <v>230</v>
       </c>
@@ -5725,9 +5722,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5736,9 +5733,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -5749,11 +5746,11 @@
     </row>
     <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C36" s="31"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>231</v>
       </c>
@@ -5764,7 +5761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>232</v>
       </c>
@@ -5775,7 +5772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>233</v>
       </c>
@@ -5786,7 +5783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>234</v>
       </c>
@@ -5797,7 +5794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>235</v>
       </c>
@@ -5808,7 +5805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>236</v>
       </c>
@@ -5821,57 +5818,50 @@
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C43" s="31"/>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="C44" s="21"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="32" t="s">
         <v>243</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
-        <v>244</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5880,9 +5870,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B49">
         <v>0</v>

--- a/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
+++ b/IC4301_ProyectoNo1_DistribuciónTrabajo-SamanthaArburola-MarielaBarrantes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CREAR TABLAS" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="264">
   <si>
     <t>Proyecto No 1</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Catálogo de Hobbies</t>
-  </si>
-  <si>
-    <t>Catálogo de fecha de nacimiento</t>
   </si>
   <si>
     <t>Catálogo de Países</t>
@@ -1265,7 +1262,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:F84" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A6:F84"/>
+  <autoFilter ref="A6:F84">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Mariela"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Tabla"/>
@@ -1297,13 +1300,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A2:C49" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A2:C49">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Samantha"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:C49"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Consulta"/>
     <tableColumn id="3" name=" "/>
@@ -1578,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,62 +1609,62 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="8">
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="8">
         <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1675,79 +1672,79 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="8">
         <v>10</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>3</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>116</v>
-      </c>
       <c r="E10" s="21">
         <v>10</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>4</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="21">
         <v>5</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>5</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>119</v>
-      </c>
       <c r="E12" s="21">
         <v>10</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1755,17 +1752,17 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8">
         <v>0</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1773,19 +1770,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="8">
         <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -1794,17 +1791,17 @@
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8">
         <v>0</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1812,19 +1809,19 @@
         <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="8">
         <v>10</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1832,16 +1829,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="8">
         <v>0</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1849,62 +1846,62 @@
         <v>11</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" s="8">
         <v>10</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" s="8">
         <v>10</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>13</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="8">
         <v>10</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>14</v>
       </c>
@@ -1912,39 +1909,39 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="8">
         <v>10</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>15</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="8">
         <v>10</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>16</v>
       </c>
@@ -1952,41 +1949,41 @@
         <v>6</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="8">
         <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>17</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="8">
         <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>18</v>
       </c>
@@ -1994,39 +1991,39 @@
         <v>7</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="8">
         <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>19</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="E26" s="8">
         <v>10</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>20</v>
       </c>
@@ -2034,110 +2031,94 @@
         <v>8</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="8">
         <v>10</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>21</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="E28" s="8">
         <v>10</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>22</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="17">
-        <v>5</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
-        <v>23</v>
-      </c>
+      <c r="A30" s="17"/>
       <c r="B30" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="17">
-        <v>5</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>24</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="8">
         <v>10</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>25</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" s="8">
         <v>10</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2145,159 +2126,159 @@
         <v>26</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E33" s="8">
         <v>10</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>27</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="E34" s="8">
         <v>10</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>28</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" s="8">
         <v>10</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>29</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36" s="8">
         <v>10</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>30</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37" s="8">
         <v>10</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>31</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="E38" s="8">
         <v>10</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>32</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="8">
         <v>10</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>33</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="8">
         <v>10</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2305,79 +2286,79 @@
         <v>34</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E41" s="8">
         <v>10</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>35</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="E42" s="8">
         <v>10</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>36</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E43" s="8">
         <v>10</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>37</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="8">
         <v>10</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2385,82 +2366,82 @@
         <v>38</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E45" s="8">
         <v>10</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>39</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="E46" s="8">
         <v>10</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>40</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="8">
         <v>10</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>41</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="8">
         <v>10</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>42</v>
       </c>
@@ -2470,7 +2451,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>43</v>
       </c>
@@ -2480,44 +2461,44 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>44</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E51" s="8">
         <v>10</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>45</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E52" s="8">
         <v>10</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2525,137 +2506,137 @@
         <v>46</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E53" s="8">
         <v>10</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>47</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="E54" s="8">
         <v>10</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>48</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E55" s="8">
         <v>10</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>49</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="E56" s="8">
         <v>10</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>50</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E57" s="8">
         <v>10</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>51</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="E58" s="8">
         <v>10</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>52</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8">
         <v>10</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2663,7 +2644,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -2671,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>54</v>
       </c>
@@ -2684,7 +2665,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>55</v>
       </c>
@@ -2694,44 +2675,44 @@
       <c r="E62" s="11"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>56</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E63" s="11">
         <v>10</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>57</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C64" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="E64" s="11">
         <v>10</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2739,37 +2720,37 @@
         <v>58</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="19">
         <v>5</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>59</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="E66" s="19">
         <v>5</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2777,338 +2758,338 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E67" s="6">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>61</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E68" s="6">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>62</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E69" s="16">
         <v>5</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>63</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C70" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="E70" s="16">
         <v>5</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E71" s="6">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E72" s="6">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>66</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E73" s="8">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>67</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
         <v>73</v>
       </c>
-      <c r="D74" t="s">
-        <v>74</v>
-      </c>
       <c r="E74" s="6">
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E75" s="6">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E76" s="6">
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>70</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E77" s="8">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>71</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E78" s="6">
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>72</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E79" s="16">
         <v>5</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>73</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C80" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="E80" s="16">
         <v>5</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E81" s="6">
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>76</v>
       </c>
       <c r="B83" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" t="s">
         <v>113</v>
       </c>
-      <c r="D83" t="s">
-        <v>114</v>
-      </c>
       <c r="E83" s="6">
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E84" s="6">
         <v>10</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3134,8 +3115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,28 +3142,28 @@
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3190,25 +3171,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3216,25 +3197,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3242,25 +3223,25 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3268,25 +3249,25 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3294,25 +3275,25 @@
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3320,25 +3301,25 @@
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3346,25 +3327,25 @@
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3372,25 +3353,25 @@
         <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3398,25 +3379,25 @@
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3424,25 +3405,25 @@
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3450,25 +3431,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17">
         <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3476,25 +3457,25 @@
         <v>12</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3502,25 +3483,25 @@
         <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3528,25 +3509,25 @@
         <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3554,25 +3535,25 @@
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F21">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3580,25 +3561,25 @@
         <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F22">
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3606,25 +3587,25 @@
         <v>17</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F23">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3632,25 +3613,25 @@
         <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3658,25 +3639,25 @@
         <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F25">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3684,25 +3665,25 @@
         <v>20</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F26">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3710,25 +3691,25 @@
         <v>21</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F27">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3736,25 +3717,25 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F28">
         <v>101</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3762,25 +3743,25 @@
         <v>23</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F29">
         <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3788,25 +3769,25 @@
         <v>24</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F30">
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3814,25 +3795,25 @@
         <v>26</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F31">
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3840,25 +3821,25 @@
         <v>27</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F32">
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3866,25 +3847,25 @@
         <v>28</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F33">
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3892,25 +3873,25 @@
         <v>29</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F34">
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3918,25 +3899,25 @@
         <v>30</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F35">
         <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3944,25 +3925,25 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F36">
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4019,55 +4000,55 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
       <c r="F1" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
       <c r="J1" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K1" s="41"/>
       <c r="L1" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>189</v>
-      </c>
       <c r="F2" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="28" t="s">
-        <v>189</v>
-      </c>
       <c r="J2" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="34" t="s">
         <v>187</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -4082,112 +4063,112 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L4">
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L5">
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>263</v>
-      </c>
       <c r="D6" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L6">
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -4202,392 +4183,392 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L8">
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L9">
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L10">
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L11">
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L12">
         <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L13">
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L14">
         <v>10</v>
       </c>
       <c r="M14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L15">
         <v>10</v>
       </c>
       <c r="M15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L16">
         <v>10</v>
       </c>
       <c r="M16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L17">
         <v>10</v>
       </c>
       <c r="M17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L18">
         <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -4602,737 +4583,737 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L20">
         <v>10</v>
       </c>
       <c r="M20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L21">
         <v>10</v>
       </c>
       <c r="M21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L22">
         <v>10</v>
       </c>
       <c r="M22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L23">
         <v>10</v>
       </c>
       <c r="M23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
       <c r="M24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L25">
         <v>10</v>
       </c>
       <c r="M25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L26">
         <v>10</v>
       </c>
       <c r="M26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L27">
         <v>10</v>
       </c>
       <c r="M27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L28">
         <v>10</v>
       </c>
       <c r="M28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L29">
         <v>10</v>
       </c>
       <c r="M29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L30">
         <v>10</v>
       </c>
       <c r="M30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L31">
         <v>10</v>
       </c>
       <c r="M31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L32">
         <v>10</v>
       </c>
       <c r="M32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L33">
         <v>10</v>
       </c>
       <c r="M33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L34">
         <v>10</v>
       </c>
       <c r="M34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L35">
         <v>10</v>
       </c>
       <c r="M35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L36">
         <v>10</v>
       </c>
       <c r="M36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L37">
         <v>10</v>
       </c>
       <c r="M37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L38">
         <v>10</v>
       </c>
       <c r="M38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L39">
         <v>10</v>
       </c>
       <c r="M39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L40">
         <v>10</v>
       </c>
       <c r="M40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5362,8 +5343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5374,96 +5355,96 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="31"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="B9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>24</v>
@@ -5471,65 +5452,65 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>24</v>
@@ -5537,21 +5518,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>24</v>
@@ -5559,98 +5540,98 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="38">
         <v>0</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
+      <c r="B22" t="s">
+        <v>250</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B23" s="38">
         <v>5</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>24</v>
@@ -5658,21 +5639,21 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>24</v>
@@ -5680,145 +5661,145 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" s="38">
         <v>0</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="B33" s="38">
-        <v>5</v>
+        <v>229</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>250</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>239</v>
-      </c>
       <c r="B35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C36" s="31"/>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C43" s="31"/>
     </row>
@@ -5828,57 +5809,57 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
